--- a/record.xlsx
+++ b/record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Rutgers\2ndSemester\DATA STRUCT &amp; ALGS\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test1\Documents\DSA-term-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CD90BC-C1C6-430C-AAE7-AEB74585EBC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A103EE25-78F3-4C99-8580-6CD8CFA6D232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{9609F778-9A85-4252-81DB-3486F798C70F}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{9609F778-9A85-4252-81DB-3486F798C70F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>astar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,33 +73,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ham 1 time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ham</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>runtime(ms) per score</t>
   </si>
+  <si>
+    <t>short cut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runtime(us) per step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -195,7 +221,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -493,7 +519,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ham 1 time</c:v>
+                  <c:v>short cut</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -631,7 +657,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776540736"/>
@@ -690,7 +716,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1118952496"/>
@@ -732,7 +758,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -769,7 +795,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -854,7 +880,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1152,7 +1178,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ham 1 time</c:v>
+                  <c:v>short cut</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1290,7 +1316,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1123891968"/>
@@ -1349,7 +1375,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="995689568"/>
@@ -1391,7 +1417,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1428,7 +1454,658 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>runtime(us) per score</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bfs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$7:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>75.700934579439263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.83673469387756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.521897810218974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117.20599842146805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.48797250859107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B012-4E8F-A467-B406E42F534F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$8:$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>34.605146406388648</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.682539682539684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.080808080808076</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.435693338919151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106.0711793440335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B012-4E8F-A467-B406E42F534F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ham</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$9:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>243.46405228758169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>367.38247243180501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>549.30725346373276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>712.99435028248581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>930.51495390150671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B012-4E8F-A467-B406E42F534F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>short cut</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$10:$W$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.86799501867995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87440381558028613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77177508269018746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1909568025837707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1488825936418003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B012-4E8F-A467-B406E42F534F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1021867791"/>
+        <c:axId val="1029379551"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1021867791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1029379551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1029379551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1021867791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1519,6 +2196,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2172,6 +2889,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2530,15 +3763,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>681037</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2566,15 +3799,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2594,6 +3827,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A0F1128-EA09-415B-BAE5-2203F4459389}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2899,19 +4168,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D2E5FC-A34C-447D-84D5-2C86E60235F7}">
-  <dimension ref="A5:O10"/>
+  <dimension ref="A5:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G6"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2921,15 +4190,23 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2966,8 +4243,26 @@
       <c r="O6">
         <v>16</v>
       </c>
+      <c r="R6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>8</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="U6">
+        <v>12</v>
+      </c>
+      <c r="V6">
+        <v>14</v>
+      </c>
+      <c r="W6">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -3004,8 +4299,27 @@
       <c r="O7">
         <v>4.03</v>
       </c>
+      <c r="R7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" cm="1">
+        <f t="array" ref="S7:W10">(K7:O10/B7:F10)*1000</f>
+        <v>75.700934579439263</v>
+      </c>
+      <c r="T7">
+        <v>91.83673469387756</v>
+      </c>
+      <c r="U7">
+        <v>93.521897810218974</v>
+      </c>
+      <c r="V7">
+        <v>117.20599842146805</v>
+      </c>
+      <c r="W7">
+        <v>138.48797250859107</v>
+      </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3042,10 +4356,28 @@
       <c r="O8">
         <v>3.04</v>
       </c>
+      <c r="R8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>34.605146406388648</v>
+      </c>
+      <c r="T8">
+        <v>39.682539682539684</v>
+      </c>
+      <c r="U8">
+        <v>58.080808080808076</v>
+      </c>
+      <c r="V8">
+        <v>80.435693338919151</v>
+      </c>
+      <c r="W8">
+        <v>106.0711793440335</v>
+      </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>12.24</v>
@@ -3063,7 +4395,7 @@
         <v>44.47</v>
       </c>
       <c r="J9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9">
         <v>2.98</v>
@@ -3080,10 +4412,28 @@
       <c r="O9">
         <v>41.38</v>
       </c>
+      <c r="R9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>243.46405228758169</v>
+      </c>
+      <c r="T9">
+        <v>367.38247243180501</v>
+      </c>
+      <c r="U9">
+        <v>549.30725346373276</v>
+      </c>
+      <c r="V9">
+        <v>712.99435028248581</v>
+      </c>
+      <c r="W9">
+        <v>930.51495390150671</v>
+      </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>16.059999999999999</v>
@@ -3101,7 +4451,7 @@
         <v>63.54</v>
       </c>
       <c r="J10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K10">
         <v>2.9999999999999997E-4</v>
@@ -3118,11 +4468,30 @@
       <c r="O10">
         <v>7.2999999999999995E-2</v>
       </c>
+      <c r="R10" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>1.86799501867995E-2</v>
+      </c>
+      <c r="T10">
+        <v>0.87440381558028613</v>
+      </c>
+      <c r="U10">
+        <v>0.77177508269018746</v>
+      </c>
+      <c r="V10">
+        <v>1.1909568025837707</v>
+      </c>
+      <c r="W10">
+        <v>1.1488825936418003</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="J5:O5"/>
+    <mergeCell ref="R5:W5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test1\Documents\DSA-term-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A103EE25-78F3-4C99-8580-6CD8CFA6D232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F9993C-22C0-4EF3-9BAB-7C7667FBC75B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{9609F778-9A85-4252-81DB-3486F798C70F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1500,7 +1500,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>runtime(us) per score</a:t>
+              <a:t>runtime(us) per step</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
@@ -4171,7 +4171,7 @@
   <dimension ref="A5:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Rutgers\2ndSemester\DATA STRUCT &amp; ALGS\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CD90BC-C1C6-430C-AAE7-AEB74585EBC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BA4DD1-ED82-4E7D-BF86-DA694CB844EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="2115" windowWidth="21600" windowHeight="11385" xr2:uid="{9609F778-9A85-4252-81DB-3486F798C70F}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{9609F778-9A85-4252-81DB-3486F798C70F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2529,16 +2529,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2566,15 +2566,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2901,8 +2901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D2E5FC-A34C-447D-84D5-2C86E60235F7}">
   <dimension ref="A5:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/record.xlsx
+++ b/record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Rutgers\2ndSemester\DATA STRUCT &amp; ALGS\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test1\Documents\DSA-term-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BA4DD1-ED82-4E7D-BF86-DA694CB844EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D165C0EF-2741-48FD-8F6D-A22F3C9675A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{9609F778-9A85-4252-81DB-3486F798C70F}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{9609F778-9A85-4252-81DB-3486F798C70F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>astar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,33 +73,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ham 1 time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ham</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>runtime(ms) per score</t>
   </si>
+  <si>
+    <t>short cut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runtime(us) per move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -195,7 +221,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -493,7 +519,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ham 1 time</c:v>
+                  <c:v>short cut</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -631,7 +657,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776540736"/>
@@ -690,7 +716,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1118952496"/>
@@ -732,7 +758,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -769,7 +795,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -854,7 +880,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1152,7 +1178,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ham 1 time</c:v>
+                  <c:v>short cut</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1290,7 +1316,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1123891968"/>
@@ -1349,7 +1375,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="995689568"/>
@@ -1391,7 +1417,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1428,7 +1454,651 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>runtime(us) per move</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bfs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$7:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>75.700934579439263</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.83673469387756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.521897810218974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117.20599842146805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.48797250859107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DCA-41F6-A43B-36E238669C1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$8:$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>34.605146406388648</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.682539682539684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.080808080808076</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.435693338919151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106.0711793440335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7DCA-41F6-A43B-36E238669C1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ham</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$9:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>243.46405228758169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>367.38247243180501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>549.30725346373276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>712.99435028248581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>930.51495390150671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7DCA-41F6-A43B-36E238669C1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>short cut</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$10:$W$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.86799501867995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87440381558028613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77177508269018746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1909568025837707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1488825936418003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7DCA-41F6-A43B-36E238669C1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1986162416"/>
+        <c:axId val="1984615856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1986162416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1984615856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1984615856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1986162416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1519,6 +2189,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2172,6 +2882,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2594,6 +3820,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB91321A-A608-4A5A-9179-8386D5F015F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2899,19 +4161,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D2E5FC-A34C-447D-84D5-2C86E60235F7}">
-  <dimension ref="A5:O10"/>
+  <dimension ref="A5:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2921,15 +4183,23 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2966,8 +4236,26 @@
       <c r="O6">
         <v>16</v>
       </c>
+      <c r="R6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>8</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="U6">
+        <v>12</v>
+      </c>
+      <c r="V6">
+        <v>14</v>
+      </c>
+      <c r="W6">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -3004,8 +4292,27 @@
       <c r="O7">
         <v>4.03</v>
       </c>
+      <c r="R7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" cm="1">
+        <f t="array" ref="S7:W10">(K7:O10/B7:F10)*1000</f>
+        <v>75.700934579439263</v>
+      </c>
+      <c r="T7">
+        <v>91.83673469387756</v>
+      </c>
+      <c r="U7">
+        <v>93.521897810218974</v>
+      </c>
+      <c r="V7">
+        <v>117.20599842146805</v>
+      </c>
+      <c r="W7">
+        <v>138.48797250859107</v>
+      </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3042,10 +4349,28 @@
       <c r="O8">
         <v>3.04</v>
       </c>
+      <c r="R8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>34.605146406388648</v>
+      </c>
+      <c r="T8">
+        <v>39.682539682539684</v>
+      </c>
+      <c r="U8">
+        <v>58.080808080808076</v>
+      </c>
+      <c r="V8">
+        <v>80.435693338919151</v>
+      </c>
+      <c r="W8">
+        <v>106.0711793440335</v>
+      </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>12.24</v>
@@ -3063,7 +4388,7 @@
         <v>44.47</v>
       </c>
       <c r="J9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9">
         <v>2.98</v>
@@ -3080,10 +4405,28 @@
       <c r="O9">
         <v>41.38</v>
       </c>
+      <c r="R9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>243.46405228758169</v>
+      </c>
+      <c r="T9">
+        <v>367.38247243180501</v>
+      </c>
+      <c r="U9">
+        <v>549.30725346373276</v>
+      </c>
+      <c r="V9">
+        <v>712.99435028248581</v>
+      </c>
+      <c r="W9">
+        <v>930.51495390150671</v>
+      </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>16.059999999999999</v>
@@ -3101,7 +4444,7 @@
         <v>63.54</v>
       </c>
       <c r="J10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K10">
         <v>2.9999999999999997E-4</v>
@@ -3118,11 +4461,30 @@
       <c r="O10">
         <v>7.2999999999999995E-2</v>
       </c>
+      <c r="R10" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>1.86799501867995E-2</v>
+      </c>
+      <c r="T10">
+        <v>0.87440381558028613</v>
+      </c>
+      <c r="U10">
+        <v>0.77177508269018746</v>
+      </c>
+      <c r="V10">
+        <v>1.1909568025837707</v>
+      </c>
+      <c r="W10">
+        <v>1.1488825936418003</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="J5:O5"/>
+    <mergeCell ref="R5:W5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record.xlsx
+++ b/record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test1\Documents\DSA-term-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Rutgers\2ndSemester\DATA STRUCT &amp; ALGS\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D165C0EF-2741-48FD-8F6D-A22F3C9675A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBADEBD2-7876-4E10-B7A2-EBD02DFBDF00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{9609F778-9A85-4252-81DB-3486F798C70F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9609F778-9A85-4252-81DB-3486F798C70F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,18 +92,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -221,7 +221,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -657,7 +657,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776540736"/>
@@ -716,7 +716,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1118952496"/>
@@ -758,7 +758,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -795,7 +795,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -841,7 +841,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Moves</a:t>
+              <a:t>Movements</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
@@ -880,7 +880,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1316,7 +1316,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1123891968"/>
@@ -1375,7 +1375,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="995689568"/>
@@ -1417,7 +1417,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1454,7 +1454,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1500,7 +1500,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>runtime(us) per move</a:t>
+              <a:t>runtime(us) per movement</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
@@ -1531,7 +1531,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1967,7 +1967,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1984615856"/>
@@ -2026,7 +2026,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1986162416"/>
@@ -2068,7 +2068,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2098,7 +2098,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4164,16 +4164,16 @@
   <dimension ref="A5:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4199,7 +4199,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>138.48797250859107</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>106.0711793440335</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>930.51495390150671</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>6</v>
       </c>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Rutgers\2ndSemester\DATA STRUCT &amp; ALGS\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBADEBD2-7876-4E10-B7A2-EBD02DFBDF00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D2A375-3F07-468B-B8B3-7A374D24F30C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9609F778-9A85-4252-81DB-3486F798C70F}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>astar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ham</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>runtime(ms) per score</t>
   </si>
   <si>
@@ -86,6 +82,12 @@
   <si>
     <t>runtime(us) per move</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ham</t>
+  </si>
+  <si>
+    <t>short cut</t>
   </si>
 </sst>
 </file>
@@ -426,7 +428,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ham</c:v>
+                  <c:v>short cut</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -519,7 +521,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>short cut</c:v>
+                  <c:v>ham</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1085,7 +1087,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ham</c:v>
+                  <c:v>short cut</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1178,7 +1180,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>short cut</c:v>
+                  <c:v>ham</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1736,7 +1738,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ham</c:v>
+                  <c:v>short cut</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1829,7 +1831,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>short cut</c:v>
+                  <c:v>ham</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4164,7 +4166,7 @@
   <dimension ref="A5:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4183,7 +4185,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4191,7 +4193,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -4370,7 +4372,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>12.24</v>
@@ -4388,7 +4390,7 @@
         <v>44.47</v>
       </c>
       <c r="J9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9">
         <v>2.98</v>
@@ -4406,7 +4408,7 @@
         <v>41.38</v>
       </c>
       <c r="R9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S9">
         <v>243.46405228758169</v>
@@ -4426,7 +4428,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>16.059999999999999</v>
@@ -4444,7 +4446,7 @@
         <v>63.54</v>
       </c>
       <c r="J10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K10">
         <v>2.9999999999999997E-4</v>
@@ -4462,7 +4464,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="R10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S10">
         <v>1.86799501867995E-2</v>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Rutgers\2ndSemester\DATA STRUCT &amp; ALGS\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D2A375-3F07-468B-B8B3-7A374D24F30C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA02B92-ECFC-406E-B424-03D3F96648C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9609F778-9A85-4252-81DB-3486F798C70F}"/>
   </bookViews>
@@ -625,6 +625,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Map Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -690,6 +746,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Runtime(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1284,6 +1396,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Map Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1349,6 +1517,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Movements</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1935,6 +2159,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Map Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2000,6 +2280,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Runtime(us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3758,15 +4094,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>519112</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3794,15 +4130,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>414337</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4166,7 +4502,7 @@
   <dimension ref="A5:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
